--- a/matlab/params.xlsx
+++ b/matlab/params.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="28">
   <si>
     <t>means_1</t>
   </si>
@@ -119,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="85">
+  <borders count="121">
     <border>
       <left/>
       <right/>
@@ -211,11 +211,47 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -301,6 +337,42 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,175 +416,175 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="83" t="s">
+      <c r="L1" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="83" t="s">
+      <c r="N1" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="83" t="s">
+      <c r="O1" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="83" t="s">
+      <c r="P1" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="83" t="s">
+      <c r="Q1" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="83" t="s">
+      <c r="R1" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="83" t="s">
+      <c r="S1" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="83" t="s">
+      <c r="T1" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="83" t="s">
+      <c r="U1" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="83" t="s">
+      <c r="V1" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="83" t="s">
+      <c r="W1" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="83" t="s">
+      <c r="X1" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="83" t="s">
+      <c r="Y1" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="83" t="s">
+      <c r="Z1" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="83" t="s">
+      <c r="AA1" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="83" t="s">
+      <c r="AB1" s="119" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>7.00761294747858</v>
+        <v>7.0375614899838439</v>
       </c>
       <c r="B2">
-        <v>2.1120605929291774</v>
+        <v>2.0043224963052735</v>
       </c>
       <c r="C2">
-        <v>7.9850170708025852</v>
+        <v>2.348162612575285</v>
       </c>
       <c r="D2">
-        <v>9.1428897342204163</v>
+        <v>2.24508839780701</v>
       </c>
       <c r="E2">
-        <v>2.2843029759866726</v>
+        <v>7.074709074783577</v>
       </c>
       <c r="F2">
-        <v>2.4233453288262701</v>
+        <v>7.2436329526347292</v>
       </c>
       <c r="G2">
-        <v>4.7667379136227401</v>
+        <v>5.548443044456449</v>
       </c>
       <c r="H2">
-        <v>4.6954516627391554</v>
+        <v>6.6435739779126459</v>
       </c>
       <c r="I2">
-        <v>1.0350872442789256</v>
+        <v>1.0306106235857893</v>
       </c>
       <c r="J2">
-        <v>-0.66942562454960186</v>
+        <v>-0.59563699266149239</v>
       </c>
       <c r="K2">
-        <v>-0.66942562454960186</v>
+        <v>-0.59563699266149239</v>
       </c>
       <c r="L2">
-        <v>2.4204845538606308</v>
+        <v>2.1290215636004017</v>
       </c>
       <c r="M2">
-        <v>1.0068392973695521</v>
+        <v>1.3992635582449078</v>
       </c>
       <c r="N2">
-        <v>-0.027136202425770806</v>
+        <v>0.53828224071948994</v>
       </c>
       <c r="O2">
-        <v>-0.027136202425770806</v>
+        <v>0.53828224071948994</v>
       </c>
       <c r="P2">
-        <v>0.90259375683232634</v>
+        <v>0.81636424458763768</v>
       </c>
       <c r="Q2">
-        <v>0.92771837869945328</v>
+        <v>3.3459870096919513</v>
       </c>
       <c r="R2">
-        <v>0.71177453208377228</v>
+        <v>2.9033724236748326</v>
       </c>
       <c r="S2">
-        <v>0.71177453208377228</v>
+        <v>2.9033724236748326</v>
       </c>
       <c r="T2">
-        <v>1.3695272245874315</v>
+        <v>4.523813425367142</v>
       </c>
       <c r="U2">
-        <v>3.5158046703636407</v>
+        <v>4.887127520863495</v>
       </c>
       <c r="V2">
-        <v>2.226810521813618</v>
+        <v>5.3574269875321336</v>
       </c>
       <c r="W2">
-        <v>2.226810521813618</v>
+        <v>5.3574269875321336</v>
       </c>
       <c r="X2">
-        <v>2.9304103759025573</v>
+        <v>7.5649938646111661</v>
       </c>
       <c r="Y2">
-        <v>0.2594189931473338</v>
+        <v>0.25073426107447816</v>
       </c>
       <c r="Z2">
-        <v>0.23643034035992755</v>
+        <v>0.25435826625378621</v>
       </c>
       <c r="AA2">
-        <v>0.2481274719522131</v>
+        <v>0.25238307529319604</v>
       </c>
       <c r="AB2">
-        <v>0.25602319454052563</v>
+        <v>0.24252439737853987</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/params.xlsx
+++ b/matlab/params.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="28">
   <si>
     <t>means_1</t>
   </si>
@@ -119,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="121">
+  <borders count="123">
     <border>
       <left/>
       <right/>
@@ -247,11 +247,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -373,6 +375,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,175 +420,175 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="119" t="s">
+      <c r="E1" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="F1" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="119" t="s">
+      <c r="G1" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="119" t="s">
+      <c r="H1" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="119" t="s">
+      <c r="I1" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="119" t="s">
+      <c r="J1" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="119" t="s">
+      <c r="K1" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="119" t="s">
+      <c r="L1" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="119" t="s">
+      <c r="M1" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="119" t="s">
+      <c r="N1" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="119" t="s">
+      <c r="O1" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="119" t="s">
+      <c r="P1" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="119" t="s">
+      <c r="Q1" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="119" t="s">
+      <c r="R1" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="119" t="s">
+      <c r="S1" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="119" t="s">
+      <c r="T1" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="119" t="s">
+      <c r="U1" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="119" t="s">
+      <c r="V1" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="119" t="s">
+      <c r="W1" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="119" t="s">
+      <c r="X1" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="119" t="s">
+      <c r="Y1" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="119" t="s">
+      <c r="Z1" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="119" t="s">
+      <c r="AA1" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="119" t="s">
+      <c r="AB1" s="121" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>7.0375614899838439</v>
+        <v>5.5396174977781474</v>
       </c>
       <c r="B2">
-        <v>2.0043224963052735</v>
+        <v>5.9582007885256063</v>
       </c>
       <c r="C2">
-        <v>2.348162612575285</v>
+        <v>1.9867527669231688</v>
       </c>
       <c r="D2">
-        <v>2.24508839780701</v>
+        <v>2.0243018861489199</v>
       </c>
       <c r="E2">
-        <v>7.074709074783577</v>
+        <v>7.3214018457844965</v>
       </c>
       <c r="F2">
-        <v>7.2436329526347292</v>
+        <v>8.0958143827430664</v>
       </c>
       <c r="G2">
-        <v>5.548443044456449</v>
+        <v>6.9414476938139966</v>
       </c>
       <c r="H2">
-        <v>6.6435739779126459</v>
+        <v>2.1118308522134148</v>
       </c>
       <c r="I2">
-        <v>1.0306106235857893</v>
+        <v>4.5136704224680226</v>
       </c>
       <c r="J2">
-        <v>-0.59563699266149239</v>
+        <v>3.779180856690989</v>
       </c>
       <c r="K2">
-        <v>-0.59563699266149239</v>
+        <v>3.779180856690989</v>
       </c>
       <c r="L2">
-        <v>2.1290215636004017</v>
+        <v>4.9369012734640103</v>
       </c>
       <c r="M2">
-        <v>1.3992635582449078</v>
+        <v>0.47275670546199278</v>
       </c>
       <c r="N2">
-        <v>0.53828224071948994</v>
+        <v>0.018421343553638902</v>
       </c>
       <c r="O2">
-        <v>0.53828224071948994</v>
+        <v>0.018421343553638902</v>
       </c>
       <c r="P2">
-        <v>0.81636424458763768</v>
+        <v>0.47885870582804996</v>
       </c>
       <c r="Q2">
-        <v>3.3459870096919513</v>
+        <v>2.1156561725409841</v>
       </c>
       <c r="R2">
-        <v>2.9033724236748326</v>
+        <v>1.8224153668650434</v>
       </c>
       <c r="S2">
-        <v>2.9033724236748326</v>
+        <v>1.8224153668650434</v>
       </c>
       <c r="T2">
-        <v>4.523813425367142</v>
+        <v>3.9709506983689886</v>
       </c>
       <c r="U2">
-        <v>4.887127520863495</v>
+        <v>1.1641505282869515</v>
       </c>
       <c r="V2">
-        <v>5.3574269875321336</v>
+        <v>-0.73240968790352545</v>
       </c>
       <c r="W2">
-        <v>5.3574269875321336</v>
+        <v>-0.73240968790352545</v>
       </c>
       <c r="X2">
-        <v>7.5649938646111661</v>
+        <v>2.2749857875236268</v>
       </c>
       <c r="Y2">
-        <v>0.25073426107447816</v>
+        <v>0.25176624178745288</v>
       </c>
       <c r="Z2">
-        <v>0.25435826625378621</v>
+        <v>0.23973623535673966</v>
       </c>
       <c r="AA2">
-        <v>0.25238307529319604</v>
+        <v>0.24294437820923492</v>
       </c>
       <c r="AB2">
-        <v>0.24252439737853987</v>
+        <v>0.2655531446465722</v>
       </c>
     </row>
   </sheetData>
